--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2487.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2487.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.320698947825867</v>
+        <v>1.509218573570251</v>
       </c>
       <c r="B1">
-        <v>3.665413742061853</v>
+        <v>1.359439134597778</v>
       </c>
       <c r="C1">
-        <v>4.816003876273667</v>
+        <v>4.554666042327881</v>
       </c>
       <c r="D1">
-        <v>3.365947049850563</v>
+        <v>2.08967113494873</v>
       </c>
       <c r="E1">
-        <v>2.03754066792345</v>
+        <v>0.7075942754745483</v>
       </c>
     </row>
   </sheetData>
